--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Pdgfc-Pdgfra.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Pdgfc-Pdgfra.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.2015403333333333</v>
+        <v>0.01846133333333333</v>
       </c>
       <c r="H2">
-        <v>0.6046210000000001</v>
+        <v>0.055384</v>
       </c>
       <c r="I2">
-        <v>0.05371480119195454</v>
+        <v>0.005172740524168673</v>
       </c>
       <c r="J2">
-        <v>0.05371480119195455</v>
+        <v>0.005172740524168674</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>1.155747666666667</v>
+        <v>0.2662156666666667</v>
       </c>
       <c r="N2">
-        <v>3.467243</v>
+        <v>0.7986470000000001</v>
       </c>
       <c r="O2">
-        <v>0.004246591903937912</v>
+        <v>0.0009813702709097034</v>
       </c>
       <c r="P2">
-        <v>0.004246591903937912</v>
+        <v>0.0009813702709097034</v>
       </c>
       <c r="Q2">
-        <v>0.2329297699892222</v>
+        <v>0.00491469616088889</v>
       </c>
       <c r="R2">
-        <v>2.096367929903</v>
+        <v>0.044232265448</v>
       </c>
       <c r="S2">
-        <v>0.0002281048398633887</v>
+        <v>5.076373769549012E-06</v>
       </c>
       <c r="T2">
-        <v>0.0002281048398633887</v>
+        <v>5.076373769549013E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.2015403333333333</v>
+        <v>0.01846133333333333</v>
       </c>
       <c r="H3">
-        <v>0.6046210000000001</v>
+        <v>0.055384</v>
       </c>
       <c r="I3">
-        <v>0.05371480119195454</v>
+        <v>0.005172740524168673</v>
       </c>
       <c r="J3">
-        <v>0.05371480119195455</v>
+        <v>0.005172740524168674</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>812.3889770000001</v>
       </c>
       <c r="O3">
-        <v>0.9949935590256014</v>
+        <v>0.998256289001958</v>
       </c>
       <c r="P3">
-        <v>0.9949935590256014</v>
+        <v>0.998256289001958</v>
       </c>
       <c r="Q3">
-        <v>54.5763817403019</v>
+        <v>4.999261233574223</v>
       </c>
       <c r="R3">
-        <v>491.1874356627171</v>
+        <v>44.99335110216801</v>
       </c>
       <c r="S3">
-        <v>0.05344588121033546</v>
+        <v>0.005163720759626663</v>
       </c>
       <c r="T3">
-        <v>0.05344588121033547</v>
+        <v>0.005163720759626664</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.2015403333333333</v>
+        <v>0.01846133333333333</v>
       </c>
       <c r="H4">
-        <v>0.6046210000000001</v>
+        <v>0.055384</v>
       </c>
       <c r="I4">
-        <v>0.05371480119195454</v>
+        <v>0.005172740524168673</v>
       </c>
       <c r="J4">
-        <v>0.05371480119195455</v>
+        <v>0.005172740524168674</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.2067996666666666</v>
+        <v>0.2067996666666667</v>
       </c>
       <c r="N4">
-        <v>0.6203989999999999</v>
+        <v>0.620399</v>
       </c>
       <c r="O4">
-        <v>0.0007598490704606445</v>
+        <v>0.000762340727132399</v>
       </c>
       <c r="P4">
-        <v>0.0007598490704606445</v>
+        <v>0.0007623407271323989</v>
       </c>
       <c r="Q4">
-        <v>0.04167847375322222</v>
+        <v>0.003817797579555556</v>
       </c>
       <c r="R4">
-        <v>0.375106263779</v>
+        <v>0.034360178216</v>
       </c>
       <c r="S4">
-        <v>4.081514175568498E-05</v>
+        <v>3.943390772461973E-06</v>
       </c>
       <c r="T4">
-        <v>4.081514175568498E-05</v>
+        <v>3.943390772461974E-06</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>5.884421</v>
       </c>
       <c r="I5">
-        <v>0.5227746044956465</v>
+        <v>0.5495916323842472</v>
       </c>
       <c r="J5">
-        <v>0.5227746044956465</v>
+        <v>0.5495916323842472</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>1.155747666666667</v>
+        <v>0.2662156666666667</v>
       </c>
       <c r="N5">
-        <v>3.467243</v>
+        <v>0.7986470000000001</v>
       </c>
       <c r="O5">
-        <v>0.004246591903937912</v>
+        <v>0.0009813702709097034</v>
       </c>
       <c r="P5">
-        <v>0.004246591903937912</v>
+        <v>0.0009813702709097034</v>
       </c>
       <c r="Q5">
-        <v>2.266968613478111</v>
+        <v>0.5221750198207777</v>
       </c>
       <c r="R5">
-        <v>20.402717521303</v>
+        <v>4.699575178387001</v>
       </c>
       <c r="S5">
-        <v>0.002220010403035556</v>
+        <v>0.0005393528891626348</v>
       </c>
       <c r="T5">
-        <v>0.002220010403035556</v>
+        <v>0.0005393528891626348</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>5.884421</v>
       </c>
       <c r="I6">
-        <v>0.5227746044956465</v>
+        <v>0.5495916323842472</v>
       </c>
       <c r="J6">
-        <v>0.5227746044956465</v>
+        <v>0.5495916323842472</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>812.3889770000001</v>
       </c>
       <c r="O6">
-        <v>0.9949935590256014</v>
+        <v>0.998256289001958</v>
       </c>
       <c r="P6">
-        <v>0.9949935590256014</v>
+        <v>0.998256289001958</v>
       </c>
       <c r="Q6">
         <v>531.1598618252575</v>
@@ -818,10 +818,10 @@
         <v>4780.438756427317</v>
       </c>
       <c r="S6">
-        <v>0.5201573642953244</v>
+        <v>0.5486333034104269</v>
       </c>
       <c r="T6">
-        <v>0.5201573642953244</v>
+        <v>0.5486333034104269</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>5.884421</v>
       </c>
       <c r="I7">
-        <v>0.5227746044956465</v>
+        <v>0.5495916323842472</v>
       </c>
       <c r="J7">
-        <v>0.5227746044956465</v>
+        <v>0.5495916323842472</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.2067996666666666</v>
+        <v>0.2067996666666667</v>
       </c>
       <c r="N7">
-        <v>0.6203989999999999</v>
+        <v>0.620399</v>
       </c>
       <c r="O7">
-        <v>0.0007598490704606445</v>
+        <v>0.000762340727132399</v>
       </c>
       <c r="P7">
-        <v>0.0007598490704606445</v>
+        <v>0.0007623407271323989</v>
       </c>
       <c r="Q7">
-        <v>0.405632100442111</v>
+        <v>0.4056321004421111</v>
       </c>
       <c r="R7">
-        <v>3.650688903978999</v>
+        <v>3.650688903979</v>
       </c>
       <c r="S7">
-        <v>0.0003972297972864481</v>
+        <v>0.0004189760846576892</v>
       </c>
       <c r="T7">
-        <v>0.0003972297972864481</v>
+        <v>0.0004189760846576891</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,40 +912,40 @@
         <v>4.767092</v>
       </c>
       <c r="I8">
-        <v>0.423510594312399</v>
+        <v>0.445235627091584</v>
       </c>
       <c r="J8">
-        <v>0.4235105943123989</v>
+        <v>0.445235627091584</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>1.155747666666667</v>
+        <v>0.2662156666666667</v>
       </c>
       <c r="N8">
-        <v>3.467243</v>
+        <v>0.7986470000000001</v>
       </c>
       <c r="O8">
-        <v>0.004246591903937912</v>
+        <v>0.0009813702709097034</v>
       </c>
       <c r="P8">
-        <v>0.004246591903937912</v>
+        <v>0.0009813702709097034</v>
       </c>
       <c r="Q8">
-        <v>1.836518485261778</v>
+        <v>0.4230248582804445</v>
       </c>
       <c r="R8">
-        <v>16.528666367356</v>
+        <v>3.807223724524</v>
       </c>
       <c r="S8">
-        <v>0.001798476661038967</v>
+        <v>0.0004369410079775195</v>
       </c>
       <c r="T8">
-        <v>0.001798476661038967</v>
+        <v>0.0004369410079775195</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>4.767092</v>
       </c>
       <c r="I9">
-        <v>0.423510594312399</v>
+        <v>0.445235627091584</v>
       </c>
       <c r="J9">
-        <v>0.4235105943123989</v>
+        <v>0.445235627091584</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>812.3889770000001</v>
       </c>
       <c r="O9">
-        <v>0.9949935590256014</v>
+        <v>0.998256289001958</v>
       </c>
       <c r="P9">
-        <v>0.9949935590256014</v>
+        <v>0.998256289001958</v>
       </c>
       <c r="Q9">
         <v>430.3036659049872</v>
@@ -1004,10 +1004,10 @@
         <v>3872.732993144884</v>
       </c>
       <c r="S9">
-        <v>0.4213903135199414</v>
+        <v>0.4444592648319043</v>
       </c>
       <c r="T9">
-        <v>0.4213903135199414</v>
+        <v>0.4444592648319043</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>4.767092</v>
       </c>
       <c r="I10">
-        <v>0.423510594312399</v>
+        <v>0.445235627091584</v>
       </c>
       <c r="J10">
-        <v>0.4235105943123989</v>
+        <v>0.445235627091584</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.2067996666666666</v>
+        <v>0.2067996666666667</v>
       </c>
       <c r="N10">
-        <v>0.6203989999999999</v>
+        <v>0.620399</v>
       </c>
       <c r="O10">
-        <v>0.0007598490704606445</v>
+        <v>0.000762340727132399</v>
       </c>
       <c r="P10">
-        <v>0.0007598490704606445</v>
+        <v>0.0007623407271323989</v>
       </c>
       <c r="Q10">
-        <v>0.3286110121897777</v>
+        <v>0.3286110121897778</v>
       </c>
       <c r="R10">
-        <v>2.957499109707999</v>
+        <v>2.957499109708</v>
       </c>
       <c r="S10">
-        <v>0.0003218041314185115</v>
+        <v>0.0003394212517022478</v>
       </c>
       <c r="T10">
-        <v>0.0003218041314185115</v>
+        <v>0.0003394212517022478</v>
       </c>
     </row>
   </sheetData>
